--- a/Projects/SANOFIMA/Data/Template.xlsx
+++ b/Projects/SANOFIMA/Data/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Private\svetar\Sanofi templates\SANOFI\Morocco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E49C5B4-DBB1-4A4C-A5B6-91EDDB5C7843}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6880CB97-B0D9-44A9-B555-9944D2588D8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <sheet name="Primary&amp;Secondary_POSM" sheetId="5" r:id="rId5"/>
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MSL!$A$2:$G$17</definedName>
-  </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -284,7 +281,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>To be identical to SKUs Brand in Trax DB</t>
+          <t>Brand, Category to be blocked together</t>
         </r>
       </text>
     </comment>
@@ -298,28 +295,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">To be </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>identical</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve"> to SKUs Category in Trax DB</t>
+          <t>Brand, Category to be blocked together</t>
         </r>
       </text>
     </comment>
@@ -612,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="95">
   <si>
     <t>KPI Name</t>
   </si>
@@ -722,87 +698,78 @@
     <t>Sum of KPIs in Group</t>
   </si>
   <si>
-    <t>Product Minimum Facings Secondary</t>
-  </si>
-  <si>
-    <t>Shelf Level Per Brand</t>
-  </si>
-  <si>
-    <t>Primary Shelf_Location</t>
-  </si>
-  <si>
     <t>Aspegic 500 mg sachet</t>
   </si>
   <si>
+    <t>Aspegic 1000 mg sachet B20</t>
+  </si>
+  <si>
+    <t>Aspegic 1000 mg sachet B10</t>
+  </si>
+  <si>
+    <t>Aspegic 250 mg</t>
+  </si>
+  <si>
+    <t>No-spa Forte 80 mg</t>
+  </si>
+  <si>
+    <t>No-spa 40mg</t>
+  </si>
+  <si>
+    <t>Toplexil</t>
+  </si>
+  <si>
+    <t>Rhinathiol 5% 125 ml</t>
+  </si>
+  <si>
+    <t>Rhinathiol 2% 125 ml</t>
+  </si>
+  <si>
+    <t>No-dol fen 400 mg</t>
+  </si>
+  <si>
+    <t>No-dol fen 20mg/ml</t>
+  </si>
+  <si>
+    <t>Rhinacare Adult 100 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterogermina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox 460 mg sachets </t>
+  </si>
+  <si>
+    <t>Rhinacare serum</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough &amp; Cold </t>
+  </si>
+  <si>
+    <t>Digestive Health</t>
+  </si>
+  <si>
     <t>Aspegic</t>
   </si>
   <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Aspegic 1000 mg sachet B20</t>
-  </si>
-  <si>
-    <t>Aspegic 1000 mg sachet B10</t>
-  </si>
-  <si>
-    <t>Aspegic 250 mg</t>
-  </si>
-  <si>
-    <t>No-spa Forte 80 mg</t>
-  </si>
-  <si>
     <t>No-spa</t>
   </si>
   <si>
-    <t>No-spa 40mg</t>
-  </si>
-  <si>
-    <t>Toplexil</t>
-  </si>
-  <si>
-    <t>Rhinathiol 5% 125 ml</t>
-  </si>
-  <si>
     <t>Rhinathiol</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough &amp; Cold </t>
-  </si>
-  <si>
-    <t>Rhinathiol 2% 125 ml</t>
-  </si>
-  <si>
-    <t>No-dol fen 400 mg</t>
-  </si>
-  <si>
     <t>No-dol fen</t>
   </si>
   <si>
-    <t>No-dol fen 20mg/ml</t>
-  </si>
-  <si>
-    <t>Rhinacare Adult 100 ml</t>
-  </si>
-  <si>
     <t>Rhinacare</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogermina </t>
-  </si>
-  <si>
-    <t>Digestive Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox 460 mg sachets </t>
-  </si>
-  <si>
     <t>Maalox</t>
   </si>
   <si>
-    <t>Rhinacare serum</t>
-  </si>
-  <si>
     <t>061090</t>
   </si>
   <si>
@@ -848,86 +815,71 @@
     <t>061090,061076,061083,061106</t>
   </si>
   <si>
+    <t>Aspegic Shelf sTrip</t>
+  </si>
+  <si>
+    <t>No-spa shelf strip</t>
+  </si>
+  <si>
+    <t>No-dol fen shelf strip</t>
+  </si>
+  <si>
+    <t>Enterogeromina shelf strip</t>
+  </si>
+  <si>
+    <t>Rhinathiol 5% 125 ml,Rhinathiol 2% 125 ml</t>
+  </si>
+  <si>
+    <t>061427,061434</t>
+  </si>
+  <si>
     <t>No-spa Forte 80 mg,No-spa 40mg</t>
   </si>
   <si>
     <t>061816,061342</t>
   </si>
   <si>
-    <t>Rhinathiol 5% 125 ml,Rhinathiol 2% 125 ml</t>
-  </si>
-  <si>
-    <t>061427,061434</t>
-  </si>
-  <si>
-    <t>Aspegic Shelf sTrip</t>
+    <t>Maalox gravity dispenser</t>
+  </si>
+  <si>
+    <t>Aspegic gravity dispenser</t>
+  </si>
+  <si>
+    <t>Rhinacare shelf strip</t>
   </si>
   <si>
     <t>SAMA.ASPC.17.12.0276</t>
   </si>
   <si>
-    <t>No-spa shelf strip</t>
-  </si>
-  <si>
     <t>SAMA.IBU.17.12.0277</t>
   </si>
   <si>
-    <t>No-dol fen shelf strip</t>
-  </si>
-  <si>
     <t>SAMA.DRT.18.03.0061</t>
   </si>
   <si>
-    <t>Rhinacare shelf strip</t>
-  </si>
-  <si>
     <t>SAMA.CAR.17.12.0259</t>
   </si>
   <si>
-    <t>Enterogeromina shelf strip</t>
-  </si>
-  <si>
     <t>SAMABCL18030059</t>
   </si>
   <si>
-    <t>Maalox gravity dispenser</t>
-  </si>
-  <si>
     <t>MAMAA161202</t>
   </si>
   <si>
-    <t>Aspegic gravity dispenser</t>
-  </si>
-  <si>
     <t>SAMAASPC17110217</t>
   </si>
   <si>
-    <t>No-spa Chlorhydrate de Drotaverine 20 x 80 mg</t>
-  </si>
-  <si>
-    <t>Aspegic Douleur &amp; Fievre 10 ct</t>
-  </si>
-  <si>
-    <t>No-spa Chlorhydrate de Drotaverine 20 x 40 mg</t>
-  </si>
-  <si>
-    <t>No-Dol Fen Douleurs &amp; Fievre Inflammation 20 x 400 mg</t>
-  </si>
-  <si>
-    <t>Enterogermina Suspension Buvable 20 x 5 ml Pack</t>
-  </si>
-  <si>
-    <t>Maalox 460 mg sachets</t>
-  </si>
-  <si>
-    <t>Aspegic Douleur &amp; Fievre 20 ct</t>
+    <t>061458</t>
+  </si>
+  <si>
+    <t>061878</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1097,12 +1049,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1111,22 +1057,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1198,14 +1138,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <fgColor theme="0"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1215,7 +1155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1264,12 +1204,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,14 +1393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1357,25 +1409,70 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1400,43 +1497,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1447,87 +1520,25 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1912,13 +1923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
@@ -1930,238 +1941,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="39" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="53" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2175,13 +2144,13 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
@@ -2196,10 +2165,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2228,22 +2197,22 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="56">
-        <v>1</v>
-      </c>
-      <c r="G3" s="56">
+      <c r="B3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2251,22 +2220,22 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="56">
-        <v>1</v>
-      </c>
-      <c r="G4" s="56">
+      <c r="B4" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2274,22 +2243,22 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="56">
-        <v>1</v>
-      </c>
-      <c r="G5" s="56">
+      <c r="B5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2297,22 +2266,22 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="56">
-        <v>1</v>
-      </c>
-      <c r="G6" s="56">
+      <c r="B6" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2320,22 +2289,22 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="56">
-        <v>1</v>
-      </c>
-      <c r="G7" s="56">
+      <c r="B7" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2343,22 +2312,22 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="60" t="s">
+      <c r="B8" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="56">
-        <v>1</v>
-      </c>
-      <c r="G8" s="56">
+      <c r="C8" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2366,22 +2335,22 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="56">
-        <v>1</v>
-      </c>
-      <c r="G9" s="56">
+      <c r="B9" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2389,22 +2358,22 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="56">
-        <v>2</v>
-      </c>
-      <c r="G10" s="56">
+      <c r="B10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2412,22 +2381,22 @@
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="56">
-        <v>2</v>
-      </c>
-      <c r="G11" s="56">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2435,22 +2404,22 @@
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="90">
-        <v>61878</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="56">
-        <v>1</v>
-      </c>
-      <c r="G12" s="56">
+      <c r="B12" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2458,22 +2427,22 @@
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="89">
-        <v>61892</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="56">
-        <v>1</v>
-      </c>
-      <c r="G13" s="56">
+      <c r="B13" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2481,119 +2450,117 @@
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="56">
-        <v>1</v>
-      </c>
-      <c r="G14" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="56">
-        <v>1</v>
-      </c>
-      <c r="G15" s="56">
-        <v>1</v>
+      <c r="E15" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="60" t="s">
+      <c r="B16" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="56">
-        <v>1</v>
-      </c>
-      <c r="G16" s="56">
-        <v>1</v>
+      <c r="E16" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="56">
-        <v>1</v>
-      </c>
-      <c r="G17" s="56">
+      <c r="B17" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="63"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G17" xr:uid="{F5E7DB89-6797-4FEF-92FE-CD49B77D7408}"/>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,10 +2579,10 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2645,10 +2612,9 @@
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
@@ -2748,7 +2714,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
@@ -2768,7 +2734,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
@@ -2791,16 +2757,6 @@
       <c r="D17" s="14"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2813,32 +2769,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.5703125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="48" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="44"/>
+    <col min="1" max="3" width="20.5703125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="61" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="87" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -2864,133 +2820,145 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="67">
-        <v>1</v>
-      </c>
-      <c r="G3" s="67">
+      <c r="B3" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="60">
+        <v>0</v>
+      </c>
+      <c r="G3" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="66" t="s">
+      <c r="B4" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0</v>
+      </c>
+      <c r="G4" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="67">
-        <v>1</v>
-      </c>
-      <c r="G4" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="E5" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0</v>
+      </c>
+      <c r="G5" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="67">
-        <v>1</v>
-      </c>
-      <c r="G5" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="A7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
+      <c r="A8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10" s="63"/>
+      <c r="D10" s="67"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D11" s="63"/>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="63"/>
+      <c r="E12" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="22" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="22" customWidth="1"/>
     <col min="4" max="4" width="26" style="25" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="25" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="22" customWidth="1"/>
@@ -3004,10 +2972,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -3028,7 +2996,7 @@
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="54" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3036,222 +3004,248 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="72">
-        <v>1</v>
-      </c>
-      <c r="G3" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="C8" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="72">
-        <v>0</v>
-      </c>
-      <c r="G4" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="73" t="s">
+      <c r="C9" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="72">
-        <v>1</v>
-      </c>
-      <c r="G5" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="75" t="s">
+      <c r="E9" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="72">
-        <v>1</v>
-      </c>
-      <c r="G6" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="72">
-        <v>0</v>
-      </c>
-      <c r="G7" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="72">
-        <v>0</v>
-      </c>
-      <c r="G8" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="72">
-        <v>0</v>
-      </c>
-      <c r="G9" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="4"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="23"/>
+    </row>
+    <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+    </row>
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+    </row>
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+    </row>
+    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+    </row>
+    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="34" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="29"/>
+    <col min="1" max="1" width="30.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="33" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="87" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -3263,356 +3257,366 @@
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="32">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="32">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C6" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D6" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="C7" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="32">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="79">
+      <c r="C8" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="77">
-        <v>1</v>
-      </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B9" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="79">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="77">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="B10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="32">
         <v>2</v>
       </c>
-      <c r="B5" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="79">
-        <v>4</v>
-      </c>
-      <c r="G5" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B11" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="79">
+      <c r="C11" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="32">
         <v>2</v>
       </c>
-      <c r="G6" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B12" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="83" t="s">
+      <c r="C12" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="32">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="79">
-        <v>4</v>
-      </c>
-      <c r="G7" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="C13" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="32">
         <v>2</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="79">
+      <c r="C14" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="B15" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="79">
+      <c r="B16" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="B17" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="79">
-        <v>2</v>
-      </c>
-      <c r="G10" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="79">
-        <v>2</v>
-      </c>
-      <c r="G11" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="79">
-        <v>4</v>
-      </c>
-      <c r="G12" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="79">
-        <v>2</v>
-      </c>
-      <c r="G13" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="79">
-        <v>2</v>
-      </c>
-      <c r="G14" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="79">
-        <v>2</v>
-      </c>
-      <c r="G15" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="79">
-        <v>4</v>
-      </c>
-      <c r="G16" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="79">
-        <v>1</v>
-      </c>
-      <c r="G17" s="77">
-        <v>0</v>
-      </c>
+      <c r="B18" s="63"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
